--- a/Purchase_Item/Default.xlsx
+++ b/Purchase_Item/Default.xlsx
@@ -4,26 +4,25 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Add to Cart and pay" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Log out" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Total Price</t>
   </si>
   <si>
     <t>$ 299.99</t>
-  </si>
-  <si>
-    <t>$ 150.00</t>
   </si>
 </sst>
 </file>
@@ -213,10 +212,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="283845"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -497,19 +496,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,11 +518,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -533,7 +527,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -546,4 +540,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>